--- a/data/income_statement/2digits/total/88_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/88_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>88-Social work activities without accommodation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>88-Social work activities without accommodation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>621801.7762300001</v>
+        <v>621901.2250099999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>700875.45319</v>
+        <v>701069.30658</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>852137.9532599999</v>
+        <v>853217.1246799999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1045994.93559</v>
+        <v>1049505.88716</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1138362.28167</v>
+        <v>1143798.10298</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1242495.38667</v>
+        <v>1250047.67197</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1394533.82941</v>
+        <v>1411257.55741</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1725064.17918</v>
+        <v>1749058.12082</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>2030774.32707</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2249186.73173</v>
+        <v>2266384.24147</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2701839.04709</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2761088.21382</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2513526.841</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>589849.1837899999</v>
@@ -995,37 +906,42 @@
         <v>662379.6505</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>803840.0365999999</v>
+        <v>804918.5066900001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>986241.7313300002</v>
+        <v>989685.84661</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1076566.68823</v>
+        <v>1081933.31433</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1179905.00556</v>
+        <v>1186416.85932</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1325317.08503</v>
+        <v>1341813.87696</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1638632.26549</v>
+        <v>1662438.06722</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>1918696.94402</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2120801.59057</v>
+        <v>2135659.23991</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2517039.87838</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2571491.52054</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2292707.222</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1246.34856</v>
@@ -1043,7 +959,7 @@
         <v>7286.056189999999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>5044.309340000001</v>
+        <v>5047.636260000001</v>
       </c>
       <c r="I7" s="48" t="n">
         <v>10490.49544</v>
@@ -1058,52 +974,62 @@
         <v>20179.05551</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>34401.01228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>35668.09668</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>71058.094</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>30706.24388</v>
+        <v>30805.69266</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>36404.1896</v>
+        <v>36598.04299</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>44032.64825999999</v>
+        <v>44033.34959</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>55362.32958</v>
+        <v>55429.16587000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>54509.53725000001</v>
+        <v>54578.73246000001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>57546.07177</v>
+        <v>58583.17639000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>58726.24894000001</v>
+        <v>58953.18501</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>73186.48424999999</v>
+        <v>73374.62415999999</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>91426.69990000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>108206.08565</v>
+        <v>110545.94605</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>150398.15643</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>153928.5966</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>149761.525</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1957.55276</v>
@@ -1118,13 +1044,13 @@
         <v>1946.43115</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3101.62555</v>
+        <v>3101.92555</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>1755.4853</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>701.15118</v>
+        <v>1044.72791</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>2799.1499</v>
@@ -1133,16 +1059,21 @@
         <v>2025.44207</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2148.96816</v>
+        <v>2150.05816</v>
       </c>
       <c r="M9" s="47" t="n">
         <v>2492.99292</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>17761.555</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>696.4687299999999</v>
@@ -1154,16 +1085,16 @@
         <v>321.66309</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>366.20849</v>
+        <v>366.2084899999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>550.7822199999999</v>
+        <v>551.0822200000001</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>1055.86348</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>552.5971800000001</v>
+        <v>896.17391</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>927.49744</v>
@@ -1172,16 +1103,21 @@
         <v>1280.33452</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1802.28157</v>
+        <v>1803.37157</v>
       </c>
       <c r="M10" s="48" t="n">
         <v>1599.03698</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>15226.909</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>481.61371</v>
@@ -1196,7 +1132,7 @@
         <v>1505.75096</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>980.5851000000001</v>
+        <v>980.5851</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>617.8870900000001</v>
@@ -1205,7 +1141,7 @@
         <v>122.36693</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>953.66232</v>
+        <v>953.6623199999999</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>623.63118</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>621.82511</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>271.715</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>779.4703199999999</v>
@@ -1244,7 +1185,7 @@
         <v>26.18707</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>917.9901399999999</v>
+        <v>917.99014</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>121.47637</v>
@@ -1255,89 +1196,104 @@
       <c r="M12" s="48" t="n">
         <v>272.13083</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>2262.931</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>619844.2234700001</v>
+        <v>619943.6722499999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>698684.9725</v>
+        <v>698878.82589</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>850374.55181</v>
+        <v>851453.72323</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1044048.50444</v>
+        <v>1047559.45601</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1135260.65612</v>
+        <v>1140696.17743</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1240739.90137</v>
+        <v>1248292.18667</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1393832.67823</v>
+        <v>1410212.8295</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1722265.02928</v>
+        <v>1746258.97092</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>2028748.885</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2247037.76357</v>
+        <v>2264234.18331</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2699346.05417</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2758595.2209</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2495765.286</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>371851.03814</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>447183.92034</v>
+        <v>447183.9203399999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>535264.11329</v>
+        <v>536985.1537500001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>678828.73503</v>
+        <v>683015.84961</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>746923.93126</v>
+        <v>752555.99797</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>827251.14116</v>
+        <v>833587.4583200002</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>950580.7249499999</v>
+        <v>965373.2578100001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1237565.91685</v>
+        <v>1254748.59524</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1465916.15681</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1685653.62382</v>
+        <v>1692061.55115</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2063202.92397</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2103492.0871</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1702043.237</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1900.60588</v>
@@ -1346,7 +1302,7 @@
         <v>4017.58937</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>8279.118470000001</v>
+        <v>8279.118469999999</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>10721.94701</v>
@@ -1361,22 +1317,27 @@
         <v>9504.53534</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>11675.88002</v>
+        <v>18569.00862</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>23307.18136</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>35843.78786</v>
+        <v>35861.71473000001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>43138.49966</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>43462.33608000001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>28058.514</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>19676.32441</v>
@@ -1388,73 +1349,83 @@
         <v>14890.3178</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>18671.95508</v>
+        <v>18700.79828</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>26938.14546</v>
+        <v>27051.79603</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>30613.33829</v>
+        <v>30639.28276</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>24905.04316</v>
+        <v>28812.41652</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>37380.1744</v>
+        <v>37730.17877</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>101338.47522</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>71339.23069999999</v>
+        <v>71393.70632</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>134253.7894</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>135557.01108</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>54547.154</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>349951.01513</v>
+        <v>349951.0151300001</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>420251.0499099999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>509816.54663</v>
+        <v>511537.58709</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>647899.4942900001</v>
+        <v>652057.76567</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>706659.96793</v>
+        <v>712178.3840699999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>780053.4773200001</v>
+        <v>786346.9008600002</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>912898.65632</v>
+        <v>923783.81582</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1180566.72241</v>
+        <v>1190506.26783</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1336036.86777</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1571351.4891</v>
+        <v>1577627.608</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1877873.84051</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1916459.83502</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1612048.818</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>323.09272</v>
@@ -1472,7 +1443,7 @@
         <v>1132.94658</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>3183.94176</v>
+        <v>3200.89091</v>
       </c>
       <c r="I18" s="48" t="n">
         <v>3272.49013</v>
@@ -1484,94 +1455,109 @@
         <v>5233.63246</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>7119.11616</v>
+        <v>7178.5221</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>7936.7944</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>8012.904920000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>7388.751</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>247993.18533</v>
+        <v>248092.63411</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>251501.05216</v>
+        <v>251694.90555</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>315110.43852</v>
+        <v>314468.56948</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>365219.7694099999</v>
+        <v>364543.6063999999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>388336.72486</v>
+        <v>388140.1794599999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>413488.76021</v>
+        <v>414704.72835</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>443251.95328</v>
+        <v>444839.57169</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>484699.1124299999</v>
+        <v>491510.37568</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>562832.7281899999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>561384.13975</v>
+        <v>572172.6321599999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>636143.1302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>655103.1338</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>793722.049</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>202132.68645</v>
+        <v>202265.85541</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>221557.2088</v>
+        <v>221746.80592</v>
       </c>
       <c r="E20" s="47" t="n">
         <v>264951.99075</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>311641.08121</v>
+        <v>311781.25058</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>346601.5328</v>
+        <v>347179.32337</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>376872.50641</v>
+        <v>379061.84019</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>387372.73818</v>
+        <v>391061.88274</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>444816.86539</v>
+        <v>448094.44074</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>515101.07891</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>564508.5942200001</v>
+        <v>576971.1859899999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>694191.17336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>717478.5873300001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>741312.5</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>347.76119</v>
@@ -1592,7 +1578,7 @@
         <v>1427.03555</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>695.5459599999999</v>
+        <v>767.68925</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>1546.72155</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>370.81492</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>343.65</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>10576.41278</v>
@@ -1631,103 +1622,118 @@
         <v>15458.97781</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>18352.54048</v>
+        <v>18545.7199</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>22569.87999</v>
+        <v>22638.89441</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>24019.08644</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>29994.02605</v>
+        <v>30022.33206</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>48957.62421</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>49409.97724</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>116832.936</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>191208.51248</v>
+        <v>191341.68144</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>206967.73487</v>
+        <v>207157.33199</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>252069.30573</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>298148.23759</v>
+        <v>298288.40696</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>329516.31384</v>
+        <v>330094.10441</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>359986.49305</v>
+        <v>362175.8268299999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>368324.65174</v>
+        <v>371748.47359</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>420700.2638500001</v>
+        <v>423908.82478</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>489833.0544399999</v>
+        <v>489833.05444</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>533823.96614</v>
+        <v>546258.2519</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>644862.7342299999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>667697.7951699999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>624135.914</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>45860.49888</v>
+        <v>45826.7787</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>29943.84336</v>
+        <v>29948.09963</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>50158.44777000001</v>
+        <v>49516.57872999999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>53578.6882</v>
+        <v>52762.35582</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>41735.19206</v>
+        <v>40960.85608999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>36616.2538</v>
+        <v>35642.88815999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>55879.21509999999</v>
+        <v>53777.68895</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>39882.24704000001</v>
+        <v>43415.93494</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>47731.64928</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-3124.454470000001</v>
+        <v>-4798.553829999998</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-58048.04315999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-62375.45353</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>52409.549</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>13822.21199</v>
@@ -1736,37 +1742,42 @@
         <v>4102.88476</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1858.37346</v>
+        <v>1869.299679999999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>5416.01198</v>
+        <v>5450.044140000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>12095.37206</v>
+        <v>12116.96001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>6930.31512</v>
+        <v>6963.709949999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>10639.47846</v>
+        <v>10671.05311</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>14937.29851</v>
+        <v>15183.05666</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>19689.14277</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>24677.35057</v>
+        <v>24759.97997</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>32347.8489</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>32821.41413</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>25677.903</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>8937.927689999999</v>
@@ -1778,7 +1789,7 @@
         <v>252.81022</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>68.39605</v>
+        <v>77.60262</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>195.57802</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>1.48002</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>1216.76166</v>
@@ -1853,37 +1874,42 @@
         <v>1007.59499</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>900.90398</v>
+        <v>906.2369200000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1407.51187</v>
+        <v>1417.55949</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1631.06721</v>
+        <v>1643.7145</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1382.49141</v>
+        <v>1403.45443</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2635.52159</v>
+        <v>2657.57785</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2756.302</v>
+        <v>2786.73074</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>4459.805270000001</v>
+        <v>4459.80527</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>4852.667689999999</v>
+        <v>4855.604230000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>6958.63715</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>7162.32447</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>4653.816</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1.55103</v>
@@ -1918,14 +1944,19 @@
       <c r="M29" s="48" t="n">
         <v>81.244</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>301.631</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>408.3360300000001</v>
+        <v>408.33603</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>16.227</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>157.97487</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>91.331</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>108.3783</v>
@@ -1973,7 +2009,7 @@
         <v>117.30942</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>120.91715</v>
+        <v>127.15696</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>133.535</v>
@@ -1994,13 +2030,18 @@
         <v>699.2705099999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>411.3825</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>412.31942</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>462.639</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>892.0300800000001</v>
@@ -2024,22 +2065,27 @@
         <v>2022.58442</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3687.33012</v>
+        <v>3901.01798</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>4100.187370000001</v>
+        <v>4100.18737</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>6408.94904</v>
+        <v>6410.041799999999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4207.310290000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4270.61119</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>4316.002</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1.16524</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>59.33</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>26.72099</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>2230.50621</v>
@@ -2126,37 +2182,42 @@
         <v>1885.62049</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>-583.0675899999999</v>
+        <v>-577.4743099999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>3171.11546</v>
+        <v>3179.65362</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>7332.30711</v>
+        <v>7341.247769999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>3397.40477</v>
+        <v>3409.836580000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>5542.3691</v>
+        <v>5551.88749</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>8139.65182</v>
+        <v>8141.29337</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>10701.45655</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>10418.36369</v>
+        <v>10496.96379</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>20528.65483</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>20734.29492</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>15793.154</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1855.83306</v>
@@ -2171,31 +2232,36 @@
         <v>1557.2015</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2696.37449</v>
+        <v>2696.37649</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3112.66571</v>
+        <v>3112.67328</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>4339.656099999999</v>
+        <v>4339.65687</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>5377.086389999999</v>
+        <v>5457.239890000001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>6666.242</v>
+        <v>6666.242000000001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>9244.3568</v>
+        <v>9244.35685</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>4550.0918</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>4568.449979999999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>4012.045</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>65.67728</v>
@@ -2204,13 +2270,13 @@
         <v>106.35966</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>96.43515999999998</v>
+        <v>96.43516000000001</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>230.88368</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>156.93303</v>
+        <v>156.93503</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>542.4464</v>
@@ -2228,13 +2294,18 @@
         <v>335.85371</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>569.46869</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>575.59103</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>228.773</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>74.35719999999999</v>
@@ -2261,7 +2332,7 @@
         <v>463.80073</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>947.7553800000002</v>
+        <v>947.7553800000001</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>180.63904</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>252.84102</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>205.489</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>6.25311</v>
@@ -2308,17 +2384,22 @@
       <c r="M39" s="48" t="n">
         <v>76.67372999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>27.674</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>813.2782</v>
+        <v>813.2782000000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>591.84485</v>
+        <v>591.8448500000001</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>467.18048</v>
@@ -2327,31 +2408,36 @@
         <v>414.04266</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>603.20164</v>
+        <v>603.2016399999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>738.72735</v>
+        <v>738.7273499999999</v>
       </c>
       <c r="I40" s="48" t="n">
         <v>1743.93297</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2128.02334</v>
+        <v>2208.176839999999</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>3046.2408</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>7704.09133</v>
+        <v>7704.091330000001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2674.29704</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2671.53661</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2193.746</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>72.63285999999999</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>113.25952</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>174.735</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>10.52985</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>813.1045600000001</v>
@@ -2441,16 +2537,16 @@
         <v>1766.14418</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>717.52158</v>
+        <v>717.5215800000001</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>1364.47671</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1503.42032</v>
+        <v>1503.42789</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1643.04487</v>
+        <v>1643.04564</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>2424.75923</v>
@@ -2459,94 +2555,109 @@
         <v>2373.92892</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>984.0639199999999</v>
+        <v>984.06397</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>863.5518000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>878.5480699999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1181.628</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>6522.6794</v>
+        <v>6522.679399999999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>6376.79613</v>
+        <v>6376.888529999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>7283.822200000001</v>
+        <v>7283.867300000001</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>10422.82529</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>11575.57755</v>
+        <v>11621.87497</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>15652.18774</v>
+        <v>15703.52755</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>18711.56837</v>
+        <v>19097.59984</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>26669.7312</v>
+        <v>26846.02736</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>30812.63319</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>39849.75539</v>
+        <v>39878.19512999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>41281.44689</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>41614.62999999999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>41035.59</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>5642.570239999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>5771.24833</v>
+        <v>5771.34073</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>6472.73722</v>
+        <v>6472.78232</v>
       </c>
       <c r="F45" s="48" t="n">
         <v>9397.724699999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>10784.1158</v>
+        <v>10789.31567</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>14286.42835</v>
+        <v>14337.76816</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>17583.80404</v>
+        <v>17969.83551</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>25574.46798</v>
+        <v>25750.76414</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>28821.30405</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>37125.99769999999</v>
+        <v>37154.43743999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>37997.23727000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>38330.42038</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>38449.616</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>880.1091600000001</v>
@@ -2555,13 +2666,13 @@
         <v>605.5478000000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>811.0849800000001</v>
+        <v>811.0849799999999</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>1025.10059</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>791.4617500000001</v>
+        <v>832.5593</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>1365.75939</v>
@@ -2581,92 +2692,107 @@
       <c r="M46" s="48" t="n">
         <v>3284.20962</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>2585.974</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>51304.19841</v>
+        <v>51270.47822999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>26285.56509</v>
+        <v>26289.72896</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>42170.46337</v>
+        <v>41539.47545</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>47014.67339</v>
+        <v>46232.37317</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>39558.61208</v>
+        <v>38759.56463999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>24781.71547</v>
+        <v>23790.39728</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>43467.46909000001</v>
+        <v>41011.48535</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>22772.72796</v>
+        <v>26295.72435</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>29941.91686</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-27541.21609</v>
+        <v>-29161.12584</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-71531.73295000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-75737.11938</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>33039.817</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>4587.225550000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>4388.505319999999</v>
+        <v>4394.472229999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>6214.89773</v>
+        <v>6258.36131</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>8632.855290000001</v>
+        <v>8685.526390000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>22541.42408</v>
+        <v>22636.50849</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>12465.57302</v>
+        <v>12551.93453</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>10980.09047</v>
+        <v>11106.14523</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>17106.88588</v>
+        <v>17138.82629</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>21997.08105</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>26613.23908</v>
+        <v>26644.33952</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>33400.20132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>33778.90667</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>36734.815</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>54.99968999999999</v>
+        <v>54.99969</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>42.73105</v>
@@ -2684,7 +2810,7 @@
         <v>284.94702</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>62.19658</v>
+        <v>72.77408</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>243.03018</v>
@@ -2698,50 +2824,60 @@
       <c r="M49" s="48" t="n">
         <v>230.14624</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>257.674</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>4532.22586</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>4345.77427</v>
+        <v>4351.74118</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>6174.575900000001</v>
+        <v>6218.039479999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>8560.154189999999</v>
+        <v>8612.825289999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>22275.90873</v>
+        <v>22370.99314</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>12180.626</v>
+        <v>12266.98751</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>10917.89389</v>
+        <v>11033.37115</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>16863.8557</v>
+        <v>16895.79611</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>21685.10404</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>26182.63333</v>
+        <v>26213.73377</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>33170.05508</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>33548.76043</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>36477.141</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>4848.205470000001</v>
@@ -2750,37 +2886,42 @@
         <v>5286.43942</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>78083.56490000001</v>
+        <v>78088.48369000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>6497.089720000001</v>
+        <v>6504.574180000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>12307.03443</v>
+        <v>12308.36955</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>37197.07781</v>
+        <v>37275.32715</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>7303.417339999999</v>
+        <v>7385.478700000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>56976.17587000001</v>
+        <v>57070.59607999999</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>13890.22836</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>49421.29702000001</v>
+        <v>49579.81804</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>18502.95081</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>19863.4353</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>26889.224</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>148.47555</v>
@@ -2789,7 +2930,7 @@
         <v>152.83308</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>74.88911</v>
+        <v>74.88910999999999</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>61.37894</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>461.60551</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>3883.801</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1164.15342</v>
@@ -2840,10 +2986,10 @@
         <v>666.0226799999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>605.42127</v>
+        <v>608.0112700000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>470.89354</v>
+        <v>471.73134</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>843.9925900000001</v>
@@ -2852,13 +2998,18 @@
         <v>985.72284</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1843.56752</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1823.63473</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1077.419</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>3535.5765</v>
@@ -2867,151 +3018,169 @@
         <v>4484.00706</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>76966.23924000001</v>
+        <v>76971.15803000001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>6078.351189999999</v>
+        <v>6085.83565</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>9706.969449999999</v>
+        <v>9708.30457</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>36496.49801</v>
+        <v>36574.74735000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>6645.315280000001</v>
+        <v>6724.786639999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>56410.51948</v>
+        <v>56504.10189</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>12653.3114</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>47962.59991</v>
+        <v>48121.12093</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>16197.77778</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>17578.19506</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>21928.004</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>51043.21849</v>
+        <v>51009.49831</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>25387.63098999999</v>
+        <v>25397.76177</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-29698.2038</v>
+        <v>-30290.64693</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>49150.43896000001</v>
+        <v>48413.32538</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>49793.00173</v>
+        <v>49087.70358</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>50.21067999999971</v>
+        <v>-932.9953400000018</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>47144.14222000001</v>
+        <v>44732.15188</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-17096.56203</v>
+        <v>-13636.04544</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>38048.76955</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-50349.27402999999</v>
+        <v>-52096.60436</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-56634.48244000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-61821.64801</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>42885.408</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>8162.8367</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>7560.69682</v>
+        <v>7562.72298</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>9303.21876</v>
+        <v>9305.24977</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>11588.27218</v>
+        <v>11600.62483</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>12955.87855</v>
+        <v>12965.19918</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>12115.51681</v>
+        <v>12123.34208</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>15153.63341</v>
+        <v>15363.17601</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>16531.19485</v>
+        <v>16630.46938</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>18450.14439</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>20182.50069</v>
+        <v>20285.60003</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>19090.44967</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>19425.31041</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>25476.968</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>42880.38179</v>
+        <v>42846.66161</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>17826.93416999999</v>
+        <v>17835.03879</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-39001.42256</v>
+        <v>-39595.8967</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>37562.16678</v>
+        <v>36812.70054999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>36837.12318000001</v>
+        <v>36122.50440000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-12065.30613</v>
+        <v>-13056.33742</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>31990.50881</v>
+        <v>29368.97587</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-33627.75688</v>
+        <v>-30266.51482</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>19598.62516</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-70531.77472000002</v>
+        <v>-72382.20439</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-75724.93210999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-81246.95841999998</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>17408.44</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1870</v>
+        <v>1876</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1884</v>
+        <v>1893</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1767</v>
+        <v>1777</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1739</v>
+        <v>1757</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1923</v>
+        <v>1937</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>2106</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2192</v>
+        <v>2272</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2274</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2437</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>